--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pf4-Procr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pf4-Procr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Procr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H2">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I2">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J2">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.9034106075972</v>
+        <v>11.518283</v>
       </c>
       <c r="N2">
-        <v>10.9034106075972</v>
+        <v>23.036566</v>
       </c>
       <c r="O2">
-        <v>0.3759386209537528</v>
+        <v>0.3533894220516505</v>
       </c>
       <c r="P2">
-        <v>0.3759386209537528</v>
+        <v>0.2877585288090849</v>
       </c>
       <c r="Q2">
-        <v>2401.421271902707</v>
+        <v>2.274020057841</v>
       </c>
       <c r="R2">
-        <v>2401.421271902707</v>
+        <v>9.096080231364001</v>
       </c>
       <c r="S2">
-        <v>0.2309196617459753</v>
+        <v>0.0001598702039584287</v>
       </c>
       <c r="T2">
-        <v>0.2309196617459753</v>
+        <v>8.679934020751413E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H3">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I3">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J3">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.96774489755968</v>
+        <v>6.779461333333333</v>
       </c>
       <c r="N3">
-        <v>5.96774489755968</v>
+        <v>20.338384</v>
       </c>
       <c r="O3">
-        <v>0.2057618361569514</v>
+        <v>0.2079988764304695</v>
       </c>
       <c r="P3">
-        <v>0.2057618361569514</v>
+        <v>0.2540545087403319</v>
       </c>
       <c r="Q3">
-        <v>1314.365757472543</v>
+        <v>1.338448712656</v>
       </c>
       <c r="R3">
-        <v>1314.365757472543</v>
+        <v>8.030692275936</v>
       </c>
       <c r="S3">
-        <v>0.1263888596629159</v>
+        <v>9.409682555015195E-05</v>
       </c>
       <c r="T3">
-        <v>0.1263888596629159</v>
+        <v>7.663287627535553E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H4">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I4">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J4">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.487385273300261</v>
+        <v>0.5063716666666667</v>
       </c>
       <c r="N4">
-        <v>0.487385273300261</v>
+        <v>1.519115</v>
       </c>
       <c r="O4">
-        <v>0.0168045535577648</v>
+        <v>0.01553585639688349</v>
       </c>
       <c r="P4">
-        <v>0.0168045535577648</v>
+        <v>0.01897584464159342</v>
       </c>
       <c r="Q4">
-        <v>107.3441517555843</v>
+        <v>0.099971439035</v>
       </c>
       <c r="R4">
-        <v>107.3441517555843</v>
+        <v>0.59982863421</v>
       </c>
       <c r="S4">
-        <v>0.01032216858567597</v>
+        <v>7.028282047660182E-06</v>
       </c>
       <c r="T4">
-        <v>0.01032216858567597</v>
+        <v>5.723864385835017E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H5">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I5">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J5">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.89777171277459</v>
+        <v>0.6397666666666667</v>
       </c>
       <c r="N5">
-        <v>5.89777171277459</v>
+        <v>1.9193</v>
       </c>
       <c r="O5">
-        <v>0.203349231189702</v>
+        <v>0.01962851343218814</v>
       </c>
       <c r="P5">
-        <v>0.203349231189702</v>
+        <v>0.02397470805081264</v>
       </c>
       <c r="Q5">
-        <v>1298.954515939678</v>
+        <v>0.1263072137</v>
       </c>
       <c r="R5">
-        <v>1298.954515939678</v>
+        <v>0.7578432822000001</v>
       </c>
       <c r="S5">
-        <v>0.1249069211444671</v>
+        <v>8.879763371485496E-06</v>
       </c>
       <c r="T5">
-        <v>0.1249069211444671</v>
+        <v>7.231719070467443E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H6">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I6">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J6">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.74685451495494</v>
+        <v>6.942118</v>
       </c>
       <c r="N6">
-        <v>5.74685451495494</v>
+        <v>20.826354</v>
       </c>
       <c r="O6">
-        <v>0.198145758141829</v>
+        <v>0.2129893029919789</v>
       </c>
       <c r="P6">
-        <v>0.198145758141829</v>
+        <v>0.2601499280533913</v>
       </c>
       <c r="Q6">
-        <v>1265.715763205965</v>
+        <v>1.370561530386</v>
       </c>
       <c r="R6">
-        <v>1265.715763205965</v>
+        <v>8.223369182315999</v>
       </c>
       <c r="S6">
-        <v>0.1217106966302879</v>
+        <v>9.635444975292576E-05</v>
       </c>
       <c r="T6">
-        <v>0.1217106966302879</v>
+        <v>7.84714955400958E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>136.912534906601</v>
+        <v>0.197427</v>
       </c>
       <c r="H7">
-        <v>136.912534906601</v>
+        <v>0.394854</v>
       </c>
       <c r="I7">
-        <v>0.381839800198348</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J7">
-        <v>0.381839800198348</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.9034106075972</v>
+        <v>6.207739500000001</v>
       </c>
       <c r="N7">
-        <v>10.9034106075972</v>
+        <v>12.415479</v>
       </c>
       <c r="O7">
-        <v>0.3759386209537528</v>
+        <v>0.1904580286968294</v>
       </c>
       <c r="P7">
-        <v>0.3759386209537528</v>
+        <v>0.1550864817047858</v>
       </c>
       <c r="Q7">
-        <v>1492.813585413655</v>
+        <v>1.2255753862665</v>
       </c>
       <c r="R7">
-        <v>1492.813585413655</v>
+        <v>4.902301545066</v>
       </c>
       <c r="S7">
-        <v>0.1435483279118234</v>
+        <v>8.616150341034286E-05</v>
       </c>
       <c r="T7">
-        <v>0.1435483279118234</v>
+        <v>4.678020958333145E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H8">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I8">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J8">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.96774489755968</v>
+        <v>11.518283</v>
       </c>
       <c r="N8">
-        <v>5.96774489755968</v>
+        <v>23.036566</v>
       </c>
       <c r="O8">
-        <v>0.2057618361569514</v>
+        <v>0.3533894220516505</v>
       </c>
       <c r="P8">
-        <v>0.2057618361569514</v>
+        <v>0.2877585288090849</v>
       </c>
       <c r="Q8">
-        <v>817.0590816008296</v>
+        <v>14.40613923490467</v>
       </c>
       <c r="R8">
-        <v>817.0590816008296</v>
+        <v>86.436835409428</v>
       </c>
       <c r="S8">
-        <v>0.07856805840661552</v>
+        <v>0.001012793361165139</v>
       </c>
       <c r="T8">
-        <v>0.07856805840661552</v>
+        <v>0.0008248234505775446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H9">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I9">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J9">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.487385273300261</v>
+        <v>6.779461333333333</v>
       </c>
       <c r="N9">
-        <v>0.487385273300261</v>
+        <v>20.338384</v>
       </c>
       <c r="O9">
-        <v>0.0168045535577648</v>
+        <v>0.2079988764304695</v>
       </c>
       <c r="P9">
-        <v>0.0168045535577648</v>
+        <v>0.2540545087403319</v>
       </c>
       <c r="Q9">
-        <v>66.72915324368525</v>
+        <v>8.479203359185776</v>
       </c>
       <c r="R9">
-        <v>66.72915324368525</v>
+        <v>76.312830232672</v>
       </c>
       <c r="S9">
-        <v>0.00641664737291935</v>
+        <v>0.0005961125829844398</v>
       </c>
       <c r="T9">
-        <v>0.00641664737291935</v>
+        <v>0.000728215137188899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H10">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I10">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J10">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.89777171277459</v>
+        <v>0.5063716666666667</v>
       </c>
       <c r="N10">
-        <v>5.89777171277459</v>
+        <v>1.519115</v>
       </c>
       <c r="O10">
-        <v>0.203349231189702</v>
+        <v>0.01553585639688349</v>
       </c>
       <c r="P10">
-        <v>0.203349231189702</v>
+        <v>0.01897584464159342</v>
       </c>
       <c r="Q10">
-        <v>807.478875496415</v>
+        <v>0.6333288333522222</v>
       </c>
       <c r="R10">
-        <v>807.478875496415</v>
+        <v>5.69995950017</v>
       </c>
       <c r="S10">
-        <v>0.07764682980796346</v>
+        <v>4.452485342495291E-05</v>
       </c>
       <c r="T10">
-        <v>0.07764682980796346</v>
+        <v>5.439186014634763E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H11">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I11">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J11">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>5.74685451495494</v>
+        <v>0.6397666666666667</v>
       </c>
       <c r="N11">
-        <v>5.74685451495494</v>
+        <v>1.9193</v>
       </c>
       <c r="O11">
-        <v>0.198145758141829</v>
+        <v>0.01962851343218814</v>
       </c>
       <c r="P11">
-        <v>0.198145758141829</v>
+        <v>0.02397470805081264</v>
       </c>
       <c r="Q11">
-        <v>786.8164193819257</v>
+        <v>0.8001685388222223</v>
       </c>
       <c r="R11">
-        <v>786.8164193819257</v>
+        <v>7.201516849400001</v>
       </c>
       <c r="S11">
-        <v>0.07565993669902617</v>
+        <v>5.625416849844292E-05</v>
       </c>
       <c r="T11">
-        <v>0.07565993669902617</v>
+        <v>6.87204702599112E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.40264858233478</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H12">
-        <v>1.40264858233478</v>
+        <v>3.752158</v>
       </c>
       <c r="I12">
-        <v>0.003911892032329803</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J12">
-        <v>0.003911892032329803</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.9034106075972</v>
+        <v>6.942118</v>
       </c>
       <c r="N12">
-        <v>10.9034106075972</v>
+        <v>20.826354</v>
       </c>
       <c r="O12">
-        <v>0.3759386209537528</v>
+        <v>0.2129893029919789</v>
       </c>
       <c r="P12">
-        <v>0.3759386209537528</v>
+        <v>0.2601499280533913</v>
       </c>
       <c r="Q12">
-        <v>15.29365343136022</v>
+        <v>8.682641196881333</v>
       </c>
       <c r="R12">
-        <v>15.29365343136022</v>
+        <v>78.143770771932</v>
       </c>
       <c r="S12">
-        <v>0.00147063129595404</v>
+        <v>0.0006104148528756425</v>
       </c>
       <c r="T12">
-        <v>0.00147063129595404</v>
+        <v>0.0007456868861977714</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.40264858233478</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H13">
-        <v>1.40264858233478</v>
+        <v>3.752158</v>
       </c>
       <c r="I13">
-        <v>0.003911892032329803</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J13">
-        <v>0.003911892032329803</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.96774489755968</v>
+        <v>6.207739500000001</v>
       </c>
       <c r="N13">
-        <v>5.96774489755968</v>
+        <v>12.415479</v>
       </c>
       <c r="O13">
-        <v>0.2057618361569514</v>
+        <v>0.1904580286968294</v>
       </c>
       <c r="P13">
-        <v>0.2057618361569514</v>
+        <v>0.1550864817047858</v>
       </c>
       <c r="Q13">
-        <v>8.370648920297702</v>
+        <v>7.764139808947</v>
       </c>
       <c r="R13">
-        <v>8.370648920297702</v>
+        <v>46.58483885368201</v>
       </c>
       <c r="S13">
-        <v>0.0008049180874199285</v>
+        <v>0.0005458415419592141</v>
       </c>
       <c r="T13">
-        <v>0.0008049180874199285</v>
+        <v>0.0004445357971041797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H14">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I14">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J14">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.487385273300261</v>
+        <v>11.518283</v>
       </c>
       <c r="N14">
-        <v>0.487385273300261</v>
+        <v>23.036566</v>
       </c>
       <c r="O14">
-        <v>0.0168045535577648</v>
+        <v>0.3533894220516505</v>
       </c>
       <c r="P14">
-        <v>0.0168045535577648</v>
+        <v>0.2877585288090849</v>
       </c>
       <c r="Q14">
-        <v>0.6836302626454605</v>
+        <v>3018.683980118511</v>
       </c>
       <c r="R14">
-        <v>0.6836302626454605</v>
+        <v>18112.10388071106</v>
       </c>
       <c r="S14">
-        <v>6.573759916947957E-05</v>
+        <v>0.2122222369690861</v>
       </c>
       <c r="T14">
-        <v>6.573759916947957E-05</v>
+        <v>0.1728347405286607</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H15">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I15">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J15">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.89777171277459</v>
+        <v>6.779461333333333</v>
       </c>
       <c r="N15">
-        <v>5.89777171277459</v>
+        <v>20.338384</v>
       </c>
       <c r="O15">
-        <v>0.203349231189702</v>
+        <v>0.2079988764304695</v>
       </c>
       <c r="P15">
-        <v>0.203349231189702</v>
+        <v>0.2540545087403319</v>
       </c>
       <c r="Q15">
-        <v>8.272501131857446</v>
+        <v>1776.744964572082</v>
       </c>
       <c r="R15">
-        <v>8.272501131857446</v>
+        <v>15990.70468114873</v>
       </c>
       <c r="S15">
-        <v>0.0007954802372713862</v>
+        <v>0.1249103229713511</v>
       </c>
       <c r="T15">
-        <v>0.0007954802372713862</v>
+        <v>0.1525912899262965</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,991 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>262.0776013333333</v>
+      </c>
+      <c r="H16">
+        <v>786.232804</v>
+      </c>
+      <c r="I16">
+        <v>0.6005336428492992</v>
+      </c>
+      <c r="J16">
+        <v>0.6006242151847005</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5063716666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.519115</v>
+      </c>
+      <c r="O16">
+        <v>0.01553585639688349</v>
+      </c>
+      <c r="P16">
+        <v>0.01897584464159342</v>
+      </c>
+      <c r="Q16">
+        <v>132.7086717831622</v>
+      </c>
+      <c r="R16">
+        <v>1194.37804604846</v>
+      </c>
+      <c r="S16">
+        <v>0.009329804436804029</v>
+      </c>
+      <c r="T16">
+        <v>0.01139735179532385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>262.0776013333333</v>
+      </c>
+      <c r="H17">
+        <v>786.232804</v>
+      </c>
+      <c r="I17">
+        <v>0.6005336428492992</v>
+      </c>
+      <c r="J17">
+        <v>0.6006242151847005</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.6397666666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.9193</v>
+      </c>
+      <c r="O17">
+        <v>0.01962851343218814</v>
+      </c>
+      <c r="P17">
+        <v>0.02397470805081264</v>
+      </c>
+      <c r="Q17">
+        <v>167.6685134130223</v>
+      </c>
+      <c r="R17">
+        <v>1509.0166207172</v>
+      </c>
+      <c r="S17">
+        <v>0.01178758267514834</v>
+      </c>
+      <c r="T17">
+        <v>0.01439979020730167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>262.0776013333333</v>
+      </c>
+      <c r="H18">
+        <v>786.232804</v>
+      </c>
+      <c r="I18">
+        <v>0.6005336428492992</v>
+      </c>
+      <c r="J18">
+        <v>0.6006242151847005</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.942118</v>
+      </c>
+      <c r="N18">
+        <v>20.826354</v>
+      </c>
+      <c r="O18">
+        <v>0.2129893029919789</v>
+      </c>
+      <c r="P18">
+        <v>0.2601499280533913</v>
+      </c>
+      <c r="Q18">
+        <v>1819.373633612957</v>
+      </c>
+      <c r="R18">
+        <v>16374.36270251662</v>
+      </c>
+      <c r="S18">
+        <v>0.1279072420137062</v>
+      </c>
+      <c r="T18">
+        <v>0.1562523463674245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.40264858233478</v>
-      </c>
-      <c r="H16">
-        <v>1.40264858233478</v>
-      </c>
-      <c r="I16">
-        <v>0.003911892032329803</v>
-      </c>
-      <c r="J16">
-        <v>0.003911892032329803</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.74685451495494</v>
-      </c>
-      <c r="N16">
-        <v>5.74685451495494</v>
-      </c>
-      <c r="O16">
-        <v>0.198145758141829</v>
-      </c>
-      <c r="P16">
-        <v>0.198145758141829</v>
-      </c>
-      <c r="Q16">
-        <v>8.060817338285776</v>
-      </c>
-      <c r="R16">
-        <v>8.060817338285776</v>
-      </c>
-      <c r="S16">
-        <v>0.0007751248125149691</v>
-      </c>
-      <c r="T16">
-        <v>0.0007751248125149691</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>262.0776013333333</v>
+      </c>
+      <c r="H19">
+        <v>786.232804</v>
+      </c>
+      <c r="I19">
+        <v>0.6005336428492992</v>
+      </c>
+      <c r="J19">
+        <v>0.6006242151847005</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.207739500000001</v>
+      </c>
+      <c r="N19">
+        <v>12.415479</v>
+      </c>
+      <c r="O19">
+        <v>0.1904580286968294</v>
+      </c>
+      <c r="P19">
+        <v>0.1550864817047858</v>
+      </c>
+      <c r="Q19">
+        <v>1626.909477862186</v>
+      </c>
+      <c r="R19">
+        <v>9761.456867173118</v>
+      </c>
+      <c r="S19">
+        <v>0.1143764537832033</v>
+      </c>
+      <c r="T19">
+        <v>0.09314869635969336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H20">
+        <v>513.335785</v>
+      </c>
+      <c r="I20">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J20">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.518283</v>
+      </c>
+      <c r="N20">
+        <v>23.036566</v>
+      </c>
+      <c r="O20">
+        <v>0.3533894220516505</v>
+      </c>
+      <c r="P20">
+        <v>0.2877585288090849</v>
+      </c>
+      <c r="Q20">
+        <v>1970.915615219052</v>
+      </c>
+      <c r="R20">
+        <v>11825.49369131431</v>
+      </c>
+      <c r="S20">
+        <v>0.1385610827413172</v>
+      </c>
+      <c r="T20">
+        <v>0.112844766528657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H21">
+        <v>513.335785</v>
+      </c>
+      <c r="I21">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J21">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.779461333333333</v>
+      </c>
+      <c r="N21">
+        <v>20.338384</v>
+      </c>
+      <c r="O21">
+        <v>0.2079988764304695</v>
+      </c>
+      <c r="P21">
+        <v>0.2540545087403319</v>
+      </c>
+      <c r="Q21">
+        <v>1160.046701807938</v>
+      </c>
+      <c r="R21">
+        <v>10440.42031627144</v>
+      </c>
+      <c r="S21">
+        <v>0.08155464688179311</v>
+      </c>
+      <c r="T21">
+        <v>0.09962770466961841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H22">
+        <v>513.335785</v>
+      </c>
+      <c r="I22">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J22">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5063716666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.519115</v>
+      </c>
+      <c r="O22">
+        <v>0.01553585639688349</v>
+      </c>
+      <c r="P22">
+        <v>0.01897584464159342</v>
+      </c>
+      <c r="Q22">
+        <v>86.64623233669722</v>
+      </c>
+      <c r="R22">
+        <v>779.8160910302749</v>
+      </c>
+      <c r="S22">
+        <v>0.00609148137815842</v>
+      </c>
+      <c r="T22">
+        <v>0.007441394585685244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H23">
+        <v>513.335785</v>
+      </c>
+      <c r="I23">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J23">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.6397666666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.9193</v>
+      </c>
+      <c r="O23">
+        <v>0.01962851343218814</v>
+      </c>
+      <c r="P23">
+        <v>0.02397470805081264</v>
+      </c>
+      <c r="Q23">
+        <v>109.4717080167222</v>
+      </c>
+      <c r="R23">
+        <v>985.2453721505001</v>
+      </c>
+      <c r="S23">
+        <v>0.007696178504655313</v>
+      </c>
+      <c r="T23">
+        <v>0.009401703378813119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H24">
+        <v>513.335785</v>
+      </c>
+      <c r="I24">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J24">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.942118</v>
+      </c>
+      <c r="N24">
+        <v>20.826354</v>
+      </c>
+      <c r="O24">
+        <v>0.2129893029919789</v>
+      </c>
+      <c r="P24">
+        <v>0.2601499280533913</v>
+      </c>
+      <c r="Q24">
+        <v>1187.879197697543</v>
+      </c>
+      <c r="R24">
+        <v>10690.91277927789</v>
+      </c>
+      <c r="S24">
+        <v>0.08351135204769561</v>
+      </c>
+      <c r="T24">
+        <v>0.1020180288491419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H25">
+        <v>513.335785</v>
+      </c>
+      <c r="I25">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J25">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.207739500000001</v>
+      </c>
+      <c r="N25">
+        <v>12.415479</v>
+      </c>
+      <c r="O25">
+        <v>0.1904580286968294</v>
+      </c>
+      <c r="P25">
+        <v>0.1550864817047858</v>
+      </c>
+      <c r="Q25">
+        <v>1062.218276436003</v>
+      </c>
+      <c r="R25">
+        <v>6373.309658616015</v>
+      </c>
+      <c r="S25">
+        <v>0.07467702490866418</v>
+      </c>
+      <c r="T25">
+        <v>0.06081730363355563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.770183</v>
+      </c>
+      <c r="H26">
+        <v>5.310549</v>
+      </c>
+      <c r="I26">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J26">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.518283</v>
+      </c>
+      <c r="N26">
+        <v>23.036566</v>
+      </c>
+      <c r="O26">
+        <v>0.3533894220516505</v>
+      </c>
+      <c r="P26">
+        <v>0.2877585288090849</v>
+      </c>
+      <c r="Q26">
+        <v>20.389468755789</v>
+      </c>
+      <c r="R26">
+        <v>122.336812534734</v>
+      </c>
+      <c r="S26">
+        <v>0.001433438776123545</v>
+      </c>
+      <c r="T26">
+        <v>0.001167398960982221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.770183</v>
+      </c>
+      <c r="H27">
+        <v>5.310549</v>
+      </c>
+      <c r="I27">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J27">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>6.779461333333333</v>
+      </c>
+      <c r="N27">
+        <v>20.338384</v>
+      </c>
+      <c r="O27">
+        <v>0.2079988764304695</v>
+      </c>
+      <c r="P27">
+        <v>0.2540545087403319</v>
+      </c>
+      <c r="Q27">
+        <v>12.000887201424</v>
+      </c>
+      <c r="R27">
+        <v>108.007984812816</v>
+      </c>
+      <c r="S27">
+        <v>0.0008436971687907157</v>
+      </c>
+      <c r="T27">
+        <v>0.00103066613095274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.770183</v>
+      </c>
+      <c r="H28">
+        <v>5.310549</v>
+      </c>
+      <c r="I28">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J28">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.5063716666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.519115</v>
+      </c>
+      <c r="O28">
+        <v>0.01553585639688349</v>
+      </c>
+      <c r="P28">
+        <v>0.01897584464159342</v>
+      </c>
+      <c r="Q28">
+        <v>0.8963705160150001</v>
+      </c>
+      <c r="R28">
+        <v>8.067334644135</v>
+      </c>
+      <c r="S28">
+        <v>6.301744644842521E-05</v>
+      </c>
+      <c r="T28">
+        <v>7.698253605214019E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.770183</v>
+      </c>
+      <c r="H29">
+        <v>5.310549</v>
+      </c>
+      <c r="I29">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J29">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.6397666666666667</v>
+      </c>
+      <c r="N29">
+        <v>1.9193</v>
+      </c>
+      <c r="O29">
+        <v>0.01962851343218814</v>
+      </c>
+      <c r="P29">
+        <v>0.02397470805081264</v>
+      </c>
+      <c r="Q29">
+        <v>1.1325040773</v>
+      </c>
+      <c r="R29">
+        <v>10.1925366957</v>
+      </c>
+      <c r="S29">
+        <v>7.961832051455124E-05</v>
+      </c>
+      <c r="T29">
+        <v>9.726227536748217E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.770183</v>
+      </c>
+      <c r="H30">
+        <v>5.310549</v>
+      </c>
+      <c r="I30">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J30">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.942118</v>
+      </c>
+      <c r="N30">
+        <v>20.826354</v>
+      </c>
+      <c r="O30">
+        <v>0.2129893029919789</v>
+      </c>
+      <c r="P30">
+        <v>0.2601499280533913</v>
+      </c>
+      <c r="Q30">
+        <v>12.288819267594</v>
+      </c>
+      <c r="R30">
+        <v>110.599373408346</v>
+      </c>
+      <c r="S30">
+        <v>0.000863939627948474</v>
+      </c>
+      <c r="T30">
+        <v>0.001055394455087096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.770183</v>
+      </c>
+      <c r="H31">
+        <v>5.310549</v>
+      </c>
+      <c r="I31">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J31">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.207739500000001</v>
+      </c>
+      <c r="N31">
+        <v>12.415479</v>
+      </c>
+      <c r="O31">
+        <v>0.1904580286968294</v>
+      </c>
+      <c r="P31">
+        <v>0.1550864817047858</v>
+      </c>
+      <c r="Q31">
+        <v>10.9888349313285</v>
+      </c>
+      <c r="R31">
+        <v>65.933009587971</v>
+      </c>
+      <c r="S31">
+        <v>0.0007725469595923098</v>
+      </c>
+      <c r="T31">
+        <v>0.0006291657048492639</v>
       </c>
     </row>
   </sheetData>
